--- a/TestData/Dropdown.xlsx
+++ b/TestData/Dropdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="351">
   <si>
     <t>Risk Asset Class</t>
   </si>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +2781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3872,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3889,9 +3891,29 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3919,8 +3941,68 @@
       <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3948,8 +4030,68 @@
       <c r="I2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" t="s">
+        <v>237</v>
+      </c>
+      <c r="X2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3977,8 +4119,68 @@
       <c r="I3" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" t="s">
+        <v>228</v>
+      </c>
+      <c r="W3" t="s">
+        <v>238</v>
+      </c>
+      <c r="X3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4003,9 +4205,68 @@
       <c r="I4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" t="s">
+        <v>200</v>
+      </c>
+      <c r="U4" t="s">
+        <v>223</v>
+      </c>
+      <c r="V4" t="s">
+        <v>229</v>
+      </c>
+      <c r="W4" t="s">
+        <v>239</v>
+      </c>
+      <c r="X4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4018,9 +4279,68 @@
       <c r="H5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T5" t="s">
+        <v>201</v>
+      </c>
+      <c r="U5" t="s">
+        <v>224</v>
+      </c>
+      <c r="V5" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" t="s">
+        <v>240</v>
+      </c>
+      <c r="X5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4030,16 +4350,123 @@
       <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>175</v>
+      </c>
+      <c r="R6" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" t="s">
+        <v>195</v>
+      </c>
+      <c r="T6" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" t="s">
+        <v>225</v>
+      </c>
+      <c r="V6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" t="s">
+        <v>241</v>
+      </c>
+      <c r="X6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" t="s">
+        <v>196</v>
+      </c>
+      <c r="T7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V7" t="s">
+        <v>232</v>
+      </c>
+      <c r="W7" t="s">
+        <v>242</v>
+      </c>
+      <c r="X7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4047,15 +4474,517 @@
         <v>46</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R8" t="s">
+        <v>187</v>
+      </c>
+      <c r="T8" t="s">
+        <v>204</v>
+      </c>
+      <c r="V8" t="s">
+        <v>233</v>
+      </c>
+      <c r="W8" t="s">
+        <v>243</v>
+      </c>
+      <c r="X8" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T9" t="s">
+        <v>205</v>
+      </c>
+      <c r="V9" t="s">
+        <v>234</v>
+      </c>
+      <c r="W9" t="s">
+        <v>244</v>
+      </c>
+      <c r="X9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" t="s">
+        <v>189</v>
+      </c>
+      <c r="T10" t="s">
+        <v>206</v>
+      </c>
+      <c r="V10" t="s">
+        <v>235</v>
+      </c>
+      <c r="W10" t="s">
+        <v>245</v>
+      </c>
+      <c r="X10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" t="s">
+        <v>207</v>
+      </c>
+      <c r="V11" t="s">
+        <v>203</v>
+      </c>
+      <c r="W11" t="s">
+        <v>246</v>
+      </c>
+      <c r="X11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" t="s">
+        <v>208</v>
+      </c>
+      <c r="V12" t="s">
+        <v>204</v>
+      </c>
+      <c r="W12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" t="s">
+        <v>209</v>
+      </c>
+      <c r="W13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" t="s">
+        <v>210</v>
+      </c>
+      <c r="W14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>144</v>
+      </c>
+      <c r="T19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s">
+        <v>145</v>
+      </c>
+      <c r="T20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>146</v>
+      </c>
+      <c r="T22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+      <c r="P27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Dropdown.xlsx
+++ b/TestData/Dropdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5730" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="1" r:id="rId1"/>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,7 +3876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Dropdown.xlsx
+++ b/TestData/Dropdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="1" r:id="rId1"/>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
